--- a/import/COPABOIS.xlsx
+++ b/import/COPABOIS.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="116">
   <si>
     <t>SOCIETE</t>
   </si>
@@ -257,7 +257,7 @@
     <t>Vêtements de travail Haute visibilité</t>
   </si>
   <si>
-    <t>T2S</t>
+    <t>T2S (Consommables)</t>
   </si>
   <si>
     <t>EPI et Vêtement de Travail</t>
@@ -345,6 +345,9 @@
   </si>
   <si>
     <t>Balisage de véhicules</t>
+  </si>
+  <si>
+    <t>T2S (Véhicules)</t>
   </si>
   <si>
     <t>Pneumatiques</t>
@@ -370,7 +373,7 @@
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -430,6 +433,12 @@
       <name val="Verdana"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -613,10 +622,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -665,6 +670,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -693,11 +702,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -705,15 +714,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -721,19 +730,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -805,7 +814,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="image2.jpeg" descr=""/>
+        <xdr:cNvPr id="1" name="image1.jpeg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -844,7 +853,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="image3.png" descr=""/>
+        <xdr:cNvPr id="2" name="image2.png" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -883,7 +892,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="image4.png" descr=""/>
+        <xdr:cNvPr id="3" name="image3.png" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -922,7 +931,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="image5.png" descr=""/>
+        <xdr:cNvPr id="4" name="image4.png" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -961,7 +970,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="image6.jpeg" descr=""/>
+        <xdr:cNvPr id="5" name="image2.jpeg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -996,7 +1005,7 @@
   <dimension ref="A1:G87"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
+      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1099,244 +1108,244 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13" t="s">
+      <c r="A9" s="2"/>
+      <c r="B9" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
       <c r="G9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="16"/>
-      <c r="B10" s="17" t="s">
+      <c r="A10" s="15"/>
+      <c r="B10" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="21"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
     </row>
     <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="16"/>
-      <c r="B11" s="17"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="16"/>
       <c r="C11" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="10"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="20"/>
     </row>
     <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="16"/>
-      <c r="B12" s="24" t="s">
+      <c r="A12" s="15"/>
+      <c r="B12" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="10"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="20"/>
     </row>
     <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="16"/>
-      <c r="B13" s="24"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="23"/>
       <c r="C13" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="10"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="20"/>
     </row>
     <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="16"/>
-      <c r="B14" s="24" t="s">
+      <c r="A14" s="15"/>
+      <c r="B14" s="23" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D14" s="10"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="20"/>
     </row>
     <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="16"/>
-      <c r="B15" s="24" t="s">
+      <c r="A15" s="15"/>
+      <c r="B15" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>17</v>
       </c>
       <c r="D15" s="10"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="20"/>
     </row>
     <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="16"/>
-      <c r="B16" s="24" t="s">
+      <c r="A16" s="15"/>
+      <c r="B16" s="23" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>19</v>
       </c>
       <c r="D16" s="10"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="20"/>
     </row>
     <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="16"/>
-      <c r="B17" s="24" t="s">
+      <c r="A17" s="15"/>
+      <c r="B17" s="23" t="s">
         <v>20</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>21</v>
       </c>
       <c r="D17" s="10"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="20"/>
     </row>
     <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="16"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="10" t="s">
+      <c r="A18" s="15"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="21"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="20"/>
     </row>
     <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="16"/>
-      <c r="B19" s="24"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="23"/>
       <c r="C19" s="10" t="s">
         <v>23</v>
       </c>
       <c r="D19" s="10"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="20"/>
     </row>
     <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="16"/>
-      <c r="B20" s="24" t="s">
+      <c r="A20" s="15"/>
+      <c r="B20" s="23" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D20" s="10"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="20"/>
     </row>
     <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="16"/>
-      <c r="B21" s="24" t="s">
+      <c r="A21" s="15"/>
+      <c r="B21" s="23" t="s">
         <v>26</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>27</v>
       </c>
       <c r="D21" s="10"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="20"/>
     </row>
     <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="16"/>
-      <c r="B22" s="24" t="s">
+      <c r="A22" s="15"/>
+      <c r="B22" s="23" t="s">
         <v>28</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="10"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="20"/>
     </row>
     <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="16"/>
-      <c r="B23" s="24" t="s">
+      <c r="A23" s="15"/>
+      <c r="B23" s="23" t="s">
         <v>30</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>31</v>
       </c>
       <c r="D23" s="10"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="20"/>
     </row>
     <row r="24" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="16"/>
-      <c r="B24" s="24" t="s">
+      <c r="A24" s="15"/>
+      <c r="B24" s="23" t="s">
         <v>32</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>33</v>
       </c>
       <c r="D24" s="10"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="20"/>
     </row>
     <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="16"/>
-      <c r="B25" s="24" t="s">
+      <c r="A25" s="15"/>
+      <c r="B25" s="23" t="s">
         <v>34</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>35</v>
       </c>
       <c r="D25" s="10"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="20"/>
     </row>
     <row r="26" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="16"/>
-      <c r="B26" s="24" t="s">
+      <c r="A26" s="15"/>
+      <c r="B26" s="23" t="s">
         <v>36</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>37</v>
       </c>
       <c r="D26" s="10"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="20"/>
     </row>
     <row r="27" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="16"/>
-      <c r="B27" s="24" t="s">
+      <c r="A27" s="15"/>
+      <c r="B27" s="23" t="s">
         <v>38</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>39</v>
       </c>
       <c r="D27" s="10"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="20"/>
     </row>
     <row r="28" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="16"/>
+      <c r="A28" s="15"/>
       <c r="B28" s="25" t="s">
         <v>40</v>
       </c>
@@ -1344,23 +1353,23 @@
         <v>41</v>
       </c>
       <c r="D28" s="10"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="20"/>
     </row>
     <row r="29" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="16"/>
+      <c r="A29" s="15"/>
       <c r="B29" s="25"/>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D29" s="13"/>
-      <c r="E29" s="15"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="14"/>
       <c r="F29" s="26"/>
-      <c r="G29" s="21"/>
+      <c r="G29" s="20"/>
     </row>
     <row r="30" customFormat="false" ht="8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="12"/>
+      <c r="A30" s="2"/>
       <c r="B30" s="27" t="s">
         <v>43</v>
       </c>
@@ -1368,145 +1377,145 @@
       <c r="D30" s="28"/>
       <c r="E30" s="29"/>
       <c r="F30" s="29"/>
-      <c r="G30" s="12"/>
+      <c r="G30" s="2"/>
     </row>
     <row r="31" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="16"/>
-      <c r="B31" s="17" t="s">
+      <c r="A31" s="15"/>
+      <c r="B31" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="18"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="21"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="20"/>
     </row>
     <row r="32" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="16"/>
-      <c r="B32" s="17"/>
+      <c r="A32" s="15"/>
+      <c r="B32" s="16"/>
       <c r="C32" s="10" t="s">
         <v>46</v>
       </c>
       <c r="D32" s="10"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="20"/>
     </row>
     <row r="33" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="16"/>
-      <c r="B33" s="24" t="s">
+      <c r="A33" s="15"/>
+      <c r="B33" s="23" t="s">
         <v>47</v>
       </c>
       <c r="C33" s="10" t="s">
         <v>48</v>
       </c>
       <c r="D33" s="10"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="20"/>
     </row>
     <row r="34" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="16"/>
-      <c r="B34" s="24"/>
+      <c r="A34" s="15"/>
+      <c r="B34" s="23"/>
       <c r="C34" s="10" t="s">
         <v>49</v>
       </c>
       <c r="D34" s="10"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="20"/>
     </row>
     <row r="35" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="16"/>
-      <c r="B35" s="24" t="s">
+      <c r="A35" s="15"/>
+      <c r="B35" s="23" t="s">
         <v>50</v>
       </c>
       <c r="C35" s="10" t="s">
         <v>51</v>
       </c>
       <c r="D35" s="10"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="20"/>
     </row>
     <row r="36" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="16"/>
-      <c r="B36" s="24" t="s">
+      <c r="A36" s="15"/>
+      <c r="B36" s="23" t="s">
         <v>52</v>
       </c>
       <c r="C36" s="10" t="s">
         <v>53</v>
       </c>
       <c r="D36" s="10"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="20"/>
     </row>
     <row r="37" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="16"/>
-      <c r="B37" s="24" t="s">
+      <c r="A37" s="15"/>
+      <c r="B37" s="23" t="s">
         <v>54</v>
       </c>
       <c r="C37" s="10" t="s">
         <v>55</v>
       </c>
       <c r="D37" s="10"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="20"/>
     </row>
     <row r="38" customFormat="false" ht="8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="2"/>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="12" t="s">
         <v>56</v>
       </c>
       <c r="C38" s="30"/>
       <c r="D38" s="30"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
       <c r="G38" s="2"/>
     </row>
     <row r="39" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="16"/>
-      <c r="B39" s="17" t="s">
+      <c r="A39" s="15"/>
+      <c r="B39" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C39" s="18" t="s">
+      <c r="C39" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="D39" s="18"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="21"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="20"/>
     </row>
     <row r="40" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="16"/>
-      <c r="B40" s="17"/>
+      <c r="A40" s="15"/>
+      <c r="B40" s="16"/>
       <c r="C40" s="10" t="s">
         <v>59</v>
       </c>
       <c r="D40" s="10"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="20"/>
     </row>
     <row r="41" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="16"/>
-      <c r="B41" s="24" t="s">
+      <c r="A41" s="15"/>
+      <c r="B41" s="23" t="s">
         <v>60</v>
       </c>
       <c r="C41" s="10" t="s">
         <v>61</v>
       </c>
       <c r="D41" s="10"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="20"/>
     </row>
     <row r="42" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="16"/>
+      <c r="A42" s="15"/>
       <c r="B42" s="31" t="s">
         <v>62</v>
       </c>
@@ -1516,10 +1525,10 @@
       <c r="D42" s="10"/>
       <c r="E42" s="32"/>
       <c r="F42" s="33"/>
-      <c r="G42" s="21"/>
+      <c r="G42" s="20"/>
     </row>
     <row r="43" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="16"/>
+      <c r="A43" s="15"/>
       <c r="B43" s="31"/>
       <c r="C43" s="10" t="s">
         <v>64</v>
@@ -1527,10 +1536,10 @@
       <c r="D43" s="10"/>
       <c r="E43" s="32"/>
       <c r="F43" s="33"/>
-      <c r="G43" s="21"/>
+      <c r="G43" s="20"/>
     </row>
     <row r="44" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="16"/>
+      <c r="A44" s="15"/>
       <c r="B44" s="31"/>
       <c r="C44" s="10" t="s">
         <v>65</v>
@@ -1538,10 +1547,10 @@
       <c r="D44" s="10"/>
       <c r="E44" s="32"/>
       <c r="F44" s="33"/>
-      <c r="G44" s="21"/>
+      <c r="G44" s="20"/>
     </row>
     <row r="45" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="16"/>
+      <c r="A45" s="15"/>
       <c r="B45" s="31"/>
       <c r="C45" s="10" t="s">
         <v>66</v>
@@ -1549,10 +1558,10 @@
       <c r="D45" s="10"/>
       <c r="E45" s="32"/>
       <c r="F45" s="33"/>
-      <c r="G45" s="21"/>
+      <c r="G45" s="20"/>
     </row>
     <row r="46" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="16"/>
+      <c r="A46" s="15"/>
       <c r="B46" s="31"/>
       <c r="C46" s="10" t="s">
         <v>67</v>
@@ -1560,10 +1569,10 @@
       <c r="D46" s="10"/>
       <c r="E46" s="32"/>
       <c r="F46" s="33"/>
-      <c r="G46" s="21"/>
+      <c r="G46" s="20"/>
     </row>
     <row r="47" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="16"/>
+      <c r="A47" s="15"/>
       <c r="B47" s="31" t="s">
         <v>68</v>
       </c>
@@ -1573,23 +1582,23 @@
       <c r="D47" s="10"/>
       <c r="E47" s="32"/>
       <c r="F47" s="33"/>
-      <c r="G47" s="21"/>
+      <c r="G47" s="20"/>
     </row>
     <row r="48" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="16"/>
+      <c r="A48" s="15"/>
       <c r="B48" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="C48" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="D48" s="13"/>
+      <c r="D48" s="12"/>
       <c r="E48" s="35"/>
       <c r="F48" s="36"/>
-      <c r="G48" s="21"/>
+      <c r="G48" s="20"/>
     </row>
     <row r="49" customFormat="false" ht="8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="12"/>
+      <c r="A49" s="2"/>
       <c r="B49" s="27" t="s">
         <v>72</v>
       </c>
@@ -1597,73 +1606,73 @@
       <c r="D49" s="28"/>
       <c r="E49" s="29"/>
       <c r="F49" s="29"/>
-      <c r="G49" s="12"/>
+      <c r="G49" s="2"/>
     </row>
     <row r="50" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="16"/>
-      <c r="B50" s="17" t="s">
+      <c r="A50" s="15"/>
+      <c r="B50" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="C50" s="18" t="s">
+      <c r="C50" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="D50" s="18"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="20"/>
-      <c r="G50" s="21"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="20"/>
     </row>
     <row r="51" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="16"/>
-      <c r="B51" s="17"/>
+      <c r="A51" s="15"/>
+      <c r="B51" s="16"/>
       <c r="C51" s="10" t="s">
         <v>75</v>
       </c>
       <c r="D51" s="10"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="23"/>
-      <c r="G51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="20"/>
     </row>
     <row r="52" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="16"/>
-      <c r="B52" s="24" t="s">
+      <c r="A52" s="15"/>
+      <c r="B52" s="23" t="s">
         <v>76</v>
       </c>
       <c r="C52" s="10" t="s">
         <v>51</v>
       </c>
       <c r="D52" s="10"/>
-      <c r="E52" s="22"/>
-      <c r="F52" s="23"/>
-      <c r="G52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="20"/>
     </row>
     <row r="53" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="16"/>
-      <c r="B53" s="24" t="s">
+      <c r="A53" s="15"/>
+      <c r="B53" s="23" t="s">
         <v>77</v>
       </c>
       <c r="C53" s="10" t="s">
         <v>78</v>
       </c>
       <c r="D53" s="10"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="23"/>
-      <c r="G53" s="21"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="22"/>
+      <c r="G53" s="20"/>
     </row>
     <row r="54" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="16"/>
-      <c r="B54" s="24" t="s">
+      <c r="A54" s="15"/>
+      <c r="B54" s="23" t="s">
         <v>79</v>
       </c>
       <c r="C54" s="10" t="s">
         <v>80</v>
       </c>
       <c r="D54" s="10"/>
-      <c r="E54" s="22"/>
-      <c r="F54" s="23"/>
-      <c r="G54" s="21"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="20"/>
     </row>
     <row r="55" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="16"/>
+      <c r="A55" s="15"/>
       <c r="B55" s="34" t="s">
         <v>81</v>
       </c>
@@ -1673,21 +1682,21 @@
       <c r="D55" s="10"/>
       <c r="E55" s="32"/>
       <c r="F55" s="33"/>
-      <c r="G55" s="21"/>
+      <c r="G55" s="20"/>
     </row>
     <row r="56" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="16"/>
+      <c r="A56" s="15"/>
       <c r="B56" s="34"/>
-      <c r="C56" s="13" t="s">
+      <c r="C56" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="D56" s="13"/>
+      <c r="D56" s="12"/>
       <c r="E56" s="35"/>
       <c r="F56" s="36"/>
-      <c r="G56" s="21"/>
+      <c r="G56" s="20"/>
     </row>
     <row r="57" customFormat="false" ht="8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="12"/>
+      <c r="A57" s="2"/>
       <c r="B57" s="27" t="s">
         <v>84</v>
       </c>
@@ -1698,57 +1707,57 @@
       <c r="G57" s="2"/>
     </row>
     <row r="58" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="16"/>
-      <c r="B58" s="17" t="s">
+      <c r="A58" s="15"/>
+      <c r="B58" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="C58" s="18" t="s">
+      <c r="C58" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="D58" s="18"/>
-      <c r="E58" s="19"/>
-      <c r="F58" s="20"/>
-      <c r="G58" s="21"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="20"/>
     </row>
     <row r="59" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="16"/>
-      <c r="B59" s="24" t="s">
+      <c r="A59" s="15"/>
+      <c r="B59" s="23" t="s">
         <v>87</v>
       </c>
       <c r="C59" s="10" t="s">
         <v>88</v>
       </c>
       <c r="D59" s="10"/>
-      <c r="E59" s="22"/>
-      <c r="F59" s="23"/>
-      <c r="G59" s="21"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="22"/>
+      <c r="G59" s="20"/>
     </row>
     <row r="60" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="16"/>
-      <c r="B60" s="24"/>
+      <c r="A60" s="15"/>
+      <c r="B60" s="23"/>
       <c r="C60" s="10" t="s">
         <v>89</v>
       </c>
       <c r="D60" s="10"/>
-      <c r="E60" s="22"/>
-      <c r="F60" s="23"/>
-      <c r="G60" s="21"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="22"/>
+      <c r="G60" s="20"/>
     </row>
     <row r="61" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="16"/>
-      <c r="B61" s="24" t="s">
+      <c r="A61" s="15"/>
+      <c r="B61" s="23" t="s">
         <v>90</v>
       </c>
       <c r="C61" s="10" t="s">
         <v>91</v>
       </c>
       <c r="D61" s="10"/>
-      <c r="E61" s="22"/>
-      <c r="F61" s="23"/>
-      <c r="G61" s="21"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="22"/>
+      <c r="G61" s="20"/>
     </row>
     <row r="62" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="16"/>
+      <c r="A62" s="15"/>
       <c r="B62" s="31" t="s">
         <v>92</v>
       </c>
@@ -1756,23 +1765,23 @@
         <v>93</v>
       </c>
       <c r="D62" s="10"/>
-      <c r="E62" s="22"/>
-      <c r="F62" s="23"/>
-      <c r="G62" s="21"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="22"/>
+      <c r="G62" s="20"/>
     </row>
     <row r="63" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="16"/>
+      <c r="A63" s="15"/>
       <c r="B63" s="31"/>
       <c r="C63" s="10" t="s">
         <v>94</v>
       </c>
       <c r="D63" s="10"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="23"/>
-      <c r="G63" s="21"/>
+      <c r="E63" s="21"/>
+      <c r="F63" s="22"/>
+      <c r="G63" s="20"/>
     </row>
     <row r="64" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="16"/>
+      <c r="A64" s="15"/>
       <c r="B64" s="31"/>
       <c r="C64" s="10" t="s">
         <v>95</v>
@@ -1780,10 +1789,10 @@
       <c r="D64" s="10"/>
       <c r="E64" s="32"/>
       <c r="F64" s="33"/>
-      <c r="G64" s="21"/>
+      <c r="G64" s="20"/>
     </row>
     <row r="65" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="16"/>
+      <c r="A65" s="15"/>
       <c r="B65" s="31"/>
       <c r="C65" s="10" t="s">
         <v>96</v>
@@ -1791,10 +1800,10 @@
       <c r="D65" s="10"/>
       <c r="E65" s="32"/>
       <c r="F65" s="33"/>
-      <c r="G65" s="21"/>
+      <c r="G65" s="20"/>
     </row>
     <row r="66" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="16"/>
+      <c r="A66" s="15"/>
       <c r="B66" s="31" t="s">
         <v>97</v>
       </c>
@@ -1804,10 +1813,10 @@
       <c r="D66" s="10"/>
       <c r="E66" s="32"/>
       <c r="F66" s="33"/>
-      <c r="G66" s="21"/>
+      <c r="G66" s="20"/>
     </row>
     <row r="67" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="16"/>
+      <c r="A67" s="15"/>
       <c r="B67" s="31" t="s">
         <v>99</v>
       </c>
@@ -1817,11 +1826,11 @@
       <c r="D67" s="10"/>
       <c r="E67" s="32"/>
       <c r="F67" s="33"/>
-      <c r="G67" s="21"/>
+      <c r="G67" s="20"/>
     </row>
     <row r="68" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="16"/>
-      <c r="B68" s="24" t="s">
+      <c r="A68" s="15"/>
+      <c r="B68" s="23" t="s">
         <v>101</v>
       </c>
       <c r="C68" s="10" t="s">
@@ -1830,22 +1839,22 @@
       <c r="D68" s="10"/>
       <c r="E68" s="32"/>
       <c r="F68" s="33"/>
-      <c r="G68" s="21"/>
+      <c r="G68" s="20"/>
     </row>
     <row r="69" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="16"/>
-      <c r="B69" s="24"/>
+      <c r="A69" s="15"/>
+      <c r="B69" s="23"/>
       <c r="C69" s="10" t="s">
         <v>103</v>
       </c>
       <c r="D69" s="10"/>
       <c r="E69" s="32"/>
       <c r="F69" s="33"/>
-      <c r="G69" s="21"/>
+      <c r="G69" s="20"/>
     </row>
     <row r="70" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="16"/>
-      <c r="B70" s="24" t="s">
+      <c r="A70" s="15"/>
+      <c r="B70" s="23" t="s">
         <v>104</v>
       </c>
       <c r="C70" s="10" t="s">
@@ -1854,22 +1863,22 @@
       <c r="D70" s="10"/>
       <c r="E70" s="32"/>
       <c r="F70" s="33"/>
-      <c r="G70" s="21"/>
+      <c r="G70" s="20"/>
     </row>
     <row r="71" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="16"/>
-      <c r="B71" s="24"/>
+      <c r="A71" s="15"/>
+      <c r="B71" s="23"/>
       <c r="C71" s="10" t="s">
         <v>106</v>
       </c>
       <c r="D71" s="10"/>
       <c r="E71" s="32"/>
       <c r="F71" s="33"/>
-      <c r="G71" s="21"/>
+      <c r="G71" s="20"/>
     </row>
     <row r="72" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="16"/>
-      <c r="B72" s="24" t="s">
+      <c r="A72" s="15"/>
+      <c r="B72" s="23" t="s">
         <v>107</v>
       </c>
       <c r="C72" s="10" t="s">
@@ -1878,55 +1887,55 @@
       <c r="D72" s="10"/>
       <c r="E72" s="32"/>
       <c r="F72" s="33"/>
-      <c r="G72" s="21"/>
+      <c r="G72" s="20"/>
     </row>
     <row r="73" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="16"/>
-      <c r="B73" s="24" t="s">
+      <c r="A73" s="15"/>
+      <c r="B73" s="23" t="s">
         <v>109</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="D73" s="10"/>
       <c r="E73" s="32"/>
       <c r="F73" s="33"/>
-      <c r="G73" s="21"/>
+      <c r="G73" s="20"/>
     </row>
     <row r="74" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="16"/>
+      <c r="A74" s="15"/>
       <c r="B74" s="34" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D74" s="10"/>
       <c r="E74" s="32"/>
       <c r="F74" s="33"/>
-      <c r="G74" s="21"/>
+      <c r="G74" s="20"/>
     </row>
     <row r="75" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="16"/>
+      <c r="A75" s="15"/>
       <c r="B75" s="34"/>
       <c r="C75" s="10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D75" s="10"/>
       <c r="E75" s="32"/>
       <c r="F75" s="33"/>
-      <c r="G75" s="21"/>
+      <c r="G75" s="20"/>
     </row>
     <row r="76" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="16"/>
+      <c r="A76" s="15"/>
       <c r="B76" s="34"/>
-      <c r="C76" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="D76" s="13"/>
+      <c r="C76" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D76" s="12"/>
       <c r="E76" s="35"/>
       <c r="F76" s="36"/>
-      <c r="G76" s="21"/>
+      <c r="G76" s="20"/>
     </row>
     <row r="77" customFormat="false" ht="8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="2"/>
@@ -1943,7 +1952,7 @@
       <c r="C78" s="40"/>
       <c r="D78" s="40"/>
       <c r="E78" s="41" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F78" s="40"/>
       <c r="G78" s="2"/>
